--- a/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006942</t>
+          <t>008895</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合A</t>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006943</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合C</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510130</t>
+          <t>000877</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达上证中盘ETF</t>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.64</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008895</t>
+          <t>510890</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信量化对冲策略灵活配置混合</t>
+          <t>兴业上证红利低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>56.17</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19.91</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>167301</t>
+          <t>512390</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
+          <t>平安MSCI中国A股低波动ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.39</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000877</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>510130</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>易方达上证中盘ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>510220</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证中小盘ETF</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006343</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际低波动指数A</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006344</t>
+          <t>006942</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际低波动指数C</t>
+          <t>华泰柏瑞量化明选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>510890</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>兴业上证红利低波动ETF</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>97.19</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>512390</t>
+          <t>006343</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>平安MSCI中国A股低波动ETF</t>
+          <t>中金MSCI中国A股国际低波动指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>98.08</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>510220</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>华泰柏瑞上证中小盘ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>006344</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>中金MSCI中国A股国际低波动指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>98.29</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>006943</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>华泰柏瑞量化明选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -996,15 +1176,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>40.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>24.82</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009297</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方誉慧一年持有期混合C</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>21.02</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.64</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009352</t>
+          <t>001335</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方誉丰18个月持有期混合C</t>
+          <t>南方利众灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>009297</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>南方誉慧一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005443</t>
+          <t>003476</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国金量化多策略灵活配置混合</t>
+          <t>南方安颐混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006195</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国金量化多因子股票</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001335</t>
+          <t>001505</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方利众灵活配置混合A</t>
+          <t>南方利众灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>22.64</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>0.61</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001505</t>
+          <t>009352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方利众灵活配置混合C</t>
+          <t>南方誉丰18个月持有期混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>167301</t>
+          <t>005443</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
+          <t>国金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1276,15 +1556,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>94.27</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2.39</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1304,15 +1594,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>94.27</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2.39</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003476</t>
+          <t>006195</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方安颐混合</t>
+          <t>国金量化多因子股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006343</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006344</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2360,4 +2361,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2645,4 +2646,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2654,7 +2655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,17 +2666,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2685,14 +2706,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2701,14 +2744,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2717,14 +2782,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.93</v>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2733,13 +2820,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2939,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,17 +2951,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2970,14 +2991,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.58</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2986,14 +3029,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3002,14 +3067,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3018,14 +3105,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.93</v>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3034,13 +3143,811 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3830,7 +3831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3841,17 +3842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3861,14 +3882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.24</v>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3877,14 +3920,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.58</v>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3893,14 +3958,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.28</v>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3909,14 +3996,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.63</v>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3925,14 +4034,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.93</v>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3941,13 +4072,639 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,661 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008895</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>申万菱信量化对冲策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>19.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7123</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2159</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000877</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0819</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0664</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512390</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>平安MSCI中国A股低波动ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>510130</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达上证中盘ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006942</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化明选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006343</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际低波动指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>95.06</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>510220</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证中小盘ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006344</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际低波动指数C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.06</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006943</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化明选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1121,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1142,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1172,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009296</t>
+          <t>320011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方誉慧一年持有期混合A</t>
+          <t>诺安中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.22</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>81.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2453</t>
+          <t>0.1815</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1210,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>167301</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2385</t>
+          <t>0.1359</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1248,32 +732,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009351</t>
+          <t>012708</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方誉丰18个月持有期混合A</t>
+          <t>东方红中证东方红红利低波动指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1890</t>
+          <t>0.0722</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1286,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001335</t>
+          <t>320015</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方利众灵活配置混合A</t>
+          <t>诺安行业轮动混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>81.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0602</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1324,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009297</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方誉慧一年持有期混合C</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0537</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1362,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003476</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方安颐混合</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>99.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0514</t>
+          <t>0.0557</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1400,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>512390</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>平安MSCI中国A股低波动ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>97.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0527</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1438,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001505</t>
+          <t>006429</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方利众灵活配置混合C</t>
+          <t>诺安恒鑫混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>81.57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.0363</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1476,32 +960,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009352</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方誉丰18个月持有期混合C</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>98.51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0325</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1514,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005443</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国金量化多策略灵活配置混合</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0306</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1552,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>168106</t>
+          <t>012221</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>九泰盈华量化灵活配置混合（LOF）A</t>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>83.88</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1590,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>168107</t>
+          <t>012709</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>九泰盈华量化灵活配置混合（LOF）C</t>
+          <t>东方红中证东方红红利低波动指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1628,36 +1112,226 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006195</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国金量化多因子股票</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1692,7 +1366,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1722,36 +1396,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163823</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银稳健策略灵活配置混合</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>54.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>31.06</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1610</t>
+          <t>0.4216</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1760,36 +1434,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006952</t>
+          <t>011855</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银景元回报混合</t>
+          <t>银华长荣混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.41</t>
+          <t>67.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0792</t>
+          <t>0.3062</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1798,36 +1472,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008773</t>
+          <t>012708</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银景泰回报混合</t>
+          <t>东方红中证东方红红利低波动指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.69</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0763</t>
+          <t>0.0964</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1836,36 +1510,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010074</t>
+          <t>512390</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方誉隆一年持有期混合A</t>
+          <t>平安MSCI中国A股低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>97.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.0518</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1874,32 +1548,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512390</t>
+          <t>257040</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安MSCI中国A股低波动ETF</t>
+          <t>国联安红利混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>72.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0505</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1912,36 +1586,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0432</t>
+          <t>0.0413</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1950,36 +1624,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0426</t>
+          <t>0.0383</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1988,36 +1662,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>012709</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>东方红中证东方红红利低波动指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0348</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2036,26 +1710,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.76</t>
+          <t>99.20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0311</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2064,32 +1738,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>009106</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>嘉合同顺智选股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>83.27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2102,36 +1776,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.22</t>
+          <t>99.24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.0296</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2140,36 +1814,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005947</t>
+          <t>012221</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>84.76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2178,36 +1852,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0253</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2216,32 +1890,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006343</t>
+          <t>009107</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际低波动指数A</t>
+          <t>嘉合同顺智选股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>83.27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -2254,36 +1928,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010075</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方誉隆一年持有期混合C</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>97.34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -2292,36 +1966,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005948</t>
+          <t>012222</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>84.76</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2330,36 +2004,224 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006344</t>
+          <t>515520</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际低波动指数C</t>
+          <t>大成MSCI中国A股质优价值100ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2256,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2424,36 +2286,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010444</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方誉尚一年持有期混合A</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.12</t>
+          <t>58.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1272</t>
+          <t>0.3948</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2462,36 +2324,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010445</t>
+          <t>012221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方誉尚一年持有期混合C</t>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0902</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2510,22 +2372,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.21</t>
+          <t>98.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.0512</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2538,36 +2400,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010074</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方誉隆一年持有期混合A</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0272</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2576,36 +2438,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>97.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2614,36 +2476,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010075</t>
+          <t>012222</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方誉隆一年持有期混合C</t>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +2540,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2708,36 +2570,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>167301</t>
+          <t>010444</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
+          <t>南方誉尚一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.06</t>
+          <t>23.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3948</t>
+          <t>0.1272</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2746,36 +2608,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012221</t>
+          <t>010445</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>瑞达行业轮动混合型证券投资基金A</t>
+          <t>南方誉尚一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0902</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2794,22 +2656,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.63</t>
+          <t>98.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0512</t>
+          <t>0.0478</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2822,36 +2684,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>010074</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>南方誉隆一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>26.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2860,36 +2722,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97.07</t>
+          <t>99.24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2898,36 +2760,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012222</t>
+          <t>010075</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>瑞达行业轮动混合型证券投资基金C</t>
+          <t>南方誉隆一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>26.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2941,7 +2803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2962,7 +2824,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2992,36 +2854,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>167301</t>
+          <t>163823</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
+          <t>中银稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.05</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>31.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4216</t>
+          <t>0.1610</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3030,36 +2892,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011855</t>
+          <t>006952</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华长荣混合型证券投资基金</t>
+          <t>中银景元回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.96</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67.01</t>
+          <t>37.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3062</t>
+          <t>0.0792</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3068,36 +2930,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012708</t>
+          <t>008773</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数A</t>
+          <t>中银景泰回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>23.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3106,36 +2968,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512390</t>
+          <t>010074</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平安MSCI中国A股低波动ETF</t>
+          <t>南方誉隆一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.88</t>
+          <t>24.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0518</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3144,32 +3006,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>257040</t>
+          <t>512390</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安红利混合</t>
+          <t>平安MSCI中国A股低波动ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.31</t>
+          <t>98.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0456</t>
+          <t>0.0505</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3182,36 +3044,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>94.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0413</t>
+          <t>0.0432</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -3220,36 +3082,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0383</t>
+          <t>0.0426</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -3258,36 +3120,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012709</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数C</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>94.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0348</t>
+          <t>0.0357</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -3306,26 +3168,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>99.20</t>
+          <t>98.76</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0311</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3334,32 +3196,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009106</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉合同顺智选股票A</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.27</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3372,36 +3234,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>98.22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0296</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -3410,36 +3272,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012221</t>
+          <t>005947</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>瑞达行业轮动混合型证券投资基金A</t>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -3448,36 +3310,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3486,32 +3348,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009107</t>
+          <t>006343</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉合同顺智选股票C</t>
+          <t>中金MSCI中国A股国际低波动指数A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.27</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -3524,36 +3386,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>010075</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>南方誉隆一年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>97.34</t>
+          <t>24.83</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -3562,36 +3424,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>012222</t>
+          <t>005948</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>瑞达行业轮动混合型证券投资基金C</t>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -3600,224 +3462,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>515520</t>
+          <t>006344</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成MSCI中国A股质优价值100ETF</t>
+          <t>中金MSCI中国A股国际低波动指数C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>96.30</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002334</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.41</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010957</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>九泰久安量化股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>81.02</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002335</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.41</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010961</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>九泰久安量化股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>81.02</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3831,7 +3505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3852,7 +3526,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3882,36 +3556,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320011</t>
+          <t>009296</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安中小盘精选混合</t>
+          <t>南方誉慧一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>40.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.59</t>
+          <t>24.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1815</t>
+          <t>0.2453</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3920,36 +3594,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1359</t>
+          <t>0.2385</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3958,32 +3632,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012708</t>
+          <t>009351</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数A</t>
+          <t>南方誉丰18个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>29.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>21.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0722</t>
+          <t>0.1890</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3996,36 +3670,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>320015</t>
+          <t>001335</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安行业轮动混合</t>
+          <t>南方利众灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.35</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0602</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4034,36 +3708,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>009297</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>南方誉慧一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>24.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0537</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -4072,36 +3746,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>003476</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>南方安颐混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0557</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -4110,36 +3784,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512390</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安MSCI中国A股低波动ETF</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>97.59</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0527</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -4148,36 +3822,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006429</t>
+          <t>001505</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安恒鑫混合</t>
+          <t>南方利众灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.57</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0363</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -4186,32 +3860,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>009352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>南方誉丰18个月持有期混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>21.02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -4224,36 +3898,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>005443</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>国金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0306</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -4262,36 +3936,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012221</t>
+          <t>168106</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>瑞达行业轮动混合型证券投资基金A</t>
+          <t>九泰盈华量化灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.88</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0165</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -4300,36 +3974,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012709</t>
+          <t>168107</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数C</t>
+          <t>九泰盈华量化灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -4338,226 +4012,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>006195</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>国金量化多因子股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>87.80</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>012222</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>瑞达行业轮动混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>83.88</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>515520</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成MSCI中国A股质优价值100ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4571,144 +4055,660 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.24</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006343</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>16</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.3</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006344</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.58</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.63</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.93</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -600,6 +617,668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1339,7 +2018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2222,290 +2901,6 @@
       </c>
       <c r="H23" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>58.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3948</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012221</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>瑞达行业轮动混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0902</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512390</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>平安MSCI中国A股低波动ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0272</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012222</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>瑞达行业轮动混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2935,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2570,36 +2965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010444</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方誉尚一年持有期混合A</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.12</t>
+          <t>58.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1272</t>
+          <t>0.3948</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2608,36 +3003,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010445</t>
+          <t>012221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方誉尚一年持有期混合C</t>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0902</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2656,22 +3051,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.21</t>
+          <t>98.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.0512</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2684,36 +3079,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010074</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方誉隆一年持有期混合A</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0272</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2722,36 +3117,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>97.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2760,36 +3155,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010075</t>
+          <t>012222</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方誉隆一年持有期混合C</t>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2798,6 +3193,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3499,7 +4178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4049,7 +4728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601169-北京银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.58</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.63</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0.93</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -616,7 +633,1183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006343</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006344</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1278,7 +2471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2018,7 +3211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2901,290 +4094,6 @@
       </c>
       <c r="H23" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>58.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3948</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012221</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>瑞达行业轮动混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0902</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512390</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>平安MSCI中国A股低波动ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0272</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012222</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>瑞达行业轮动混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +4128,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3249,36 +4158,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010444</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方誉尚一年持有期混合A</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.12</t>
+          <t>58.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1272</t>
+          <t>0.3948</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3287,36 +4196,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010445</t>
+          <t>012221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方誉尚一年持有期混合C</t>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0902</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3335,22 +4244,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.21</t>
+          <t>98.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.0512</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3363,36 +4272,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010074</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方誉隆一年持有期混合A</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0272</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3401,36 +4310,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>97.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3439,36 +4348,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010075</t>
+          <t>012222</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方誉隆一年持有期混合C</t>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3477,6 +4386,290 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4178,7 +5371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4726,668 +5919,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008895</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>申万菱信量化对冲策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>19.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7123</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2159</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000877</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0819</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0664</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512390</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>平安MSCI中国A股低波动ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>510130</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达上证中盘ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006942</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化明选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006343</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际低波动指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>95.06</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>510220</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证中小盘ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006344</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际低波动指数C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.06</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006943</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化明选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>